--- a/Open Source Autonomous Model_forgithub_3.29.19.xlsx
+++ b/Open Source Autonomous Model_forgithub_3.29.19.xlsx
@@ -167,9 +167,6 @@
     <t>MODEL</t>
   </si>
   <si>
-    <t>Shared Autonomous Car Service Model - PER CAR</t>
-  </si>
-  <si>
     <t>(units in USD)</t>
   </si>
   <si>
@@ -358,6 +355,9 @@
   </si>
   <si>
     <t>All statements made herein are strictly beliefs and points of view held by ARK. ARK assumes no obligation to update any forward-looking information contained herein. Although ARK has taken reasonable care to ensure that the information contained herein is accurate, no representation or warranty (including liability towards third parties), expressed or implied, is made by ARK as to its accuracy, reliability or completeness.</t>
+  </si>
+  <si>
+    <t>Autonomous Taxi Price Per Mile</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1763,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1774,12 +1774,12 @@
     <row r="1" spans="1:1" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -1787,7 +1787,7 @@
     </row>
     <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -1795,7 +1795,7 @@
     </row>
     <row r="7" spans="1:1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -1803,7 +1803,7 @@
     </row>
     <row r="9" spans="1:1" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -1811,7 +1811,7 @@
     </row>
     <row r="11" spans="1:1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1832,7 +1832,7 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="16" t="s">
@@ -1957,14 +1957,14 @@
     </row>
     <row r="8" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="18">
         <v>45000</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="66"/>
       <c r="G8" s="66"/>
@@ -1980,14 +1980,14 @@
     </row>
     <row r="9" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="18">
         <v>5000</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="66"/>
       <c r="G9" s="66"/>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="66"/>
       <c r="G10" s="75"/>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="66"/>
@@ -2045,14 +2045,14 @@
     </row>
     <row r="12" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="18">
         <v>25</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="66"/>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="66"/>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="66"/>
       <c r="G14" s="66"/>
@@ -2112,7 +2112,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="78"/>
@@ -2162,7 +2162,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -2209,7 +2209,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="11"/>
@@ -2232,7 +2232,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="20">
         <v>1.2999999999999999E-2</v>
@@ -2255,7 +2255,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -2279,7 +2279,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="4"/>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -2434,13 +2434,13 @@
     </row>
     <row r="34" spans="2:16" ht="20" x14ac:dyDescent="0.25">
       <c r="B34" s="38" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="13"/>
       <c r="I35" s="4"/>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="41">
         <v>0</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="38" spans="2:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="31">
         <f>-SUM(C8:C9)</f>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="39" spans="2:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="31"/>
       <c r="D39" s="31">
@@ -2576,7 +2576,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="31"/>
       <c r="D41" s="31">
@@ -2607,7 +2607,7 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="31"/>
       <c r="D42" s="31">
@@ -2638,7 +2638,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="31"/>
       <c r="D43" s="31">
@@ -2669,7 +2669,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="31"/>
       <c r="D44" s="31">
@@ -2700,7 +2700,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="31"/>
       <c r="D45" s="31">
@@ -2776,7 +2776,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" s="52">
         <f t="shared" ref="C48:H48" si="2">SUM(C38:C46)</f>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50" s="51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="52"/>
       <c r="D50" s="52">
@@ -2869,7 +2869,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" s="52">
         <f t="shared" ref="C52:H52" si="3">C48+C50</f>
@@ -2905,7 +2905,7 @@
       <c r="B53" s="17"/>
       <c r="C53" s="31"/>
       <c r="D53" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E53" s="31"/>
       <c r="F53" s="31"/>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="54" spans="2:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="56">
         <v>0.21</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="55" spans="2:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" s="77"/>
       <c r="D55" s="57">
@@ -2977,7 +2977,7 @@
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B57" s="51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" s="52">
         <f>C52</f>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B59" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59" s="52">
         <f>C57</f>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="61" spans="2:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C61" s="56">
         <v>0.1</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B63" s="51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" s="59">
         <f>C57+NPV(C61,D57:H57)</f>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B65" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C65" s="60">
         <f>COUNTIF(C59:H59,"&lt;0")</f>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B67" s="61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C67" s="62">
         <f>IRR(C57:H57)</f>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B70" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.2">
@@ -3209,7 +3209,7 @@
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B72" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C72" s="65"/>
       <c r="D72" s="65"/>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" s="64"/>
       <c r="D76" s="64"/>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B77" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77" s="64"/>
       <c r="D77" s="64"/>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" s="64"/>
       <c r="D78" s="64"/>
